--- a/Checklist_Testing_of_the_Mechanik_game_Tkachov_V.xlsx
+++ b/Checklist_Testing_of_the_Mechanik_game_Tkachov_V.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="223">
   <si>
     <t>Наявність елементів сторінок</t>
   </si>
@@ -392,9 +392,6 @@
     <t>На головній сторінці в категорії "Fishes" відсутні фотографії товару під назвою "Koller Products Panaview" який знаходеться на першій сторінці.</t>
   </si>
   <si>
-    <t>Усі характеристики до товарів не мають опису, інформація про товар є лише в назві самого товару.</t>
-  </si>
-  <si>
     <t>Перевірити функцію відновлення пароля</t>
   </si>
   <si>
@@ -624,13 +621,85 @@
   </si>
   <si>
     <t>Така сторінка відсутня.</t>
+  </si>
+  <si>
+    <t>Баг-репорт</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-42</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-41</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-38</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-39</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-40</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-4</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-5</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-13</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-3</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-15</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-7</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-6</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-44</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-45</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-46</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-47</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-48</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-49</t>
+  </si>
+  <si>
+    <t>Xарактеристики до товарів не мають опису, інформація про товар є лише в назві самого товару.</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-50</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-51</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-52</t>
+  </si>
+  <si>
+    <t>https://qa33.atlassian.net/browse/QA33-53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -699,6 +768,21 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -855,7 +939,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -945,12 +1029,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -987,9 +1065,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1073,6 +1148,30 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1082,87 +1181,12 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1" shrinkToFit="0"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1" shrinkToFit="0"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1" shrinkToFit="0"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="1" shrinkToFit="0"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -2099,7 +2123,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2107,7 +2131,7 @@
     <col min="1" max="1" width="47.5703125" customWidth="1"/>
     <col min="2" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" customWidth="1"/>
     <col min="7" max="7" width="88.42578125" customWidth="1"/>
     <col min="8" max="15" width="17.28515625" customWidth="1"/>
     <col min="16" max="17" width="14.42578125" customWidth="1"/>
@@ -2129,7 +2153,9 @@
       <c r="E1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="25" t="s">
+        <v>199</v>
+      </c>
       <c r="G1" s="25"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
@@ -2143,12 +2169,12 @@
       <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
@@ -2156,7 +2182,7 @@
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2166,13 +2192,11 @@
         <v>3</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -2191,12 +2215,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="16"/>
-      <c r="F4" s="30" t="s">
-        <v>5</v>
-      </c>
       <c r="G4" t="s">
         <v>80</v>
       </c>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="12.75" customHeight="1">
       <c r="A5" s="6" t="s">
@@ -2205,92 +2227,96 @@
       <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="C5" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="36" t="s">
-        <v>3</v>
-      </c>
+      <c r="F5" s="6"/>
       <c r="G5" t="s">
         <v>15</v>
       </c>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:17" ht="12.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="B6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
       <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="19.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="79" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="25.5" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="79" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="25.5" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="35" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="6"/>
@@ -2300,27 +2326,29 @@
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="79" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
@@ -2328,13 +2356,13 @@
       <c r="A13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="38" t="s">
+      <c r="B13" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="6"/>
@@ -2344,25 +2372,25 @@
       <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="38" t="s">
+      <c r="B14" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
@@ -2370,19 +2398,21 @@
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="79" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1">
       <c r="A17" s="6"/>
@@ -2451,7 +2481,7 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="37" t="s">
         <v>106</v>
       </c>
       <c r="B22" s="22" t="s">
@@ -2466,10 +2496,12 @@
       <c r="E22" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="79" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="37" t="s">
         <v>116</v>
       </c>
       <c r="B23" s="22" t="s">
@@ -2482,7 +2514,6 @@
         <v>5</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1">
       <c r="A24" s="6"/>
@@ -2490,7 +2521,6 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="12.75">
       <c r="A25" s="18"/>
@@ -2498,7 +2528,6 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="12.75" customHeight="1">
       <c r="A26" s="19"/>
@@ -3524,28 +3553,35 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A15:D15"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="39" priority="1" operator="containsText" text="not run">
+  <conditionalFormatting sqref="B1:D1 B3:D4 B26:D1000 B17:D24 B5">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="38" priority="2" operator="containsText" text="Passed">
+  <conditionalFormatting sqref="B1:D1 B3:D4 B26:D1000 B17:D24 B5">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="Failed">
+  <conditionalFormatting sqref="B1:D1 B3:D4 B26:D1000 B17:D24 B5">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="Skipped">
+  <conditionalFormatting sqref="B1:D1 B3:D4 B26:D1000 B17:D24 B5">
+    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F16" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="F9" r:id="rId3"/>
+    <hyperlink ref="F11" r:id="rId4"/>
+    <hyperlink ref="F22" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3553,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3565,8 +3601,9 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="42.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1"/>
     <col min="8" max="8" width="74" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="37.5" customHeight="1">
@@ -3588,7 +3625,9 @@
       <c r="F1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="75" t="s">
+        <v>199</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3617,10 +3656,12 @@
       <c r="E2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="6"/>
+      <c r="F2" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="51">
       <c r="A3" s="22" t="s">
@@ -3632,18 +3673,19 @@
       <c r="C3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="22"/>
-      <c r="G3" s="46" t="s">
-        <v>8</v>
-      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="28" t="s">
         <v>102</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="38.25">
@@ -3653,20 +3695,20 @@
       <c r="B4" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="31" t="s">
+      <c r="C4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>5</v>
       </c>
       <c r="H4" t="s">
         <v>80</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="25.5">
@@ -3676,21 +3718,22 @@
       <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="32" t="s">
-        <v>3</v>
-      </c>
+      <c r="G5" s="6"/>
       <c r="H5" t="s">
         <v>15</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="25.5">
@@ -3700,13 +3743,13 @@
       <c r="B6" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="38" t="s">
+      <c r="C6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="6"/>
@@ -3719,16 +3762,17 @@
       <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="38" t="s">
+      <c r="C7" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="38.25">
       <c r="A8" s="22" t="s">
@@ -3737,13 +3781,13 @@
       <c r="B8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="38" t="s">
+      <c r="C8" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="6"/>
@@ -3756,13 +3800,13 @@
       <c r="B9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="38" t="s">
+      <c r="C9" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="6"/>
@@ -3775,13 +3819,13 @@
       <c r="B10" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="38" t="s">
+      <c r="C10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="6"/>
@@ -3794,19 +3838,21 @@
       <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="4"/>
@@ -3828,51 +3874,55 @@
     </row>
     <row r="14" spans="1:18" ht="25.5">
       <c r="A14" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="51">
       <c r="A15" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>141</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="36" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="6"/>
@@ -3880,7 +3930,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>5</v>
@@ -3896,7 +3946,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>8</v>
@@ -3908,13 +3958,15 @@
         <v>8</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="G18" s="79" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>5</v>
@@ -3930,7 +3982,7 @@
     </row>
     <row r="20" spans="1:7" ht="25.5">
       <c r="A20" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>8</v>
@@ -3942,13 +3994,15 @@
         <v>8</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="6"/>
+        <v>143</v>
+      </c>
+      <c r="G20" s="79" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="25.5">
-      <c r="A21" s="14" t="s">
-        <v>138</v>
+      <c r="A21" s="37" t="s">
+        <v>137</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>8</v>
@@ -3960,13 +4014,15 @@
         <v>8</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="G21" s="79" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>5</v>
@@ -3975,41 +4031,48 @@
         <v>5</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:E2 G3:G5 C17:E23 C3">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="not run">
+  <conditionalFormatting sqref="C1:E2 C17:E23 C3">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E2 G3:G5 C17:E23 C3">
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Passed">
+  <conditionalFormatting sqref="C1:E2 C17:E23 C3">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E2 G3:G5 C17:E23 C3">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Failed">
+  <conditionalFormatting sqref="C1:E2 C17:E23 C3">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E2 G3:G5 C17:E23 C3">
-    <cfRule type="containsText" dxfId="32" priority="4" operator="containsText" text="Skipped">
+  <conditionalFormatting sqref="C1:E2 C17:E23 C3">
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G11" r:id="rId1"/>
+    <hyperlink ref="G14" r:id="rId2"/>
+    <hyperlink ref="G15" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId4"/>
+    <hyperlink ref="G18" r:id="rId5"/>
+    <hyperlink ref="G20" r:id="rId6"/>
+    <hyperlink ref="G21" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -4021,8 +4084,8 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4030,7 +4093,8 @@
     <col min="1" max="1" width="47.5703125" customWidth="1"/>
     <col min="2" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="42.5703125" customWidth="1"/>
-    <col min="6" max="7" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="51.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="107.140625" customWidth="1"/>
     <col min="9" max="18" width="17.28515625" customWidth="1"/>
   </cols>
@@ -4051,7 +4115,9 @@
       <c r="E1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="75" t="s">
+        <v>199</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="3"/>
       <c r="I1" s="5"/>
@@ -4081,19 +4147,21 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="79" t="s">
+        <v>208</v>
+      </c>
       <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
@@ -4109,19 +4177,21 @@
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="16" t="s">
+        <v>217</v>
+      </c>
       <c r="G4" s="30" t="s">
         <v>5</v>
       </c>
@@ -4136,9 +4206,9 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="41"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="34" t="s">
         <v>3</v>
       </c>
       <c r="H5" t="s">
@@ -4149,13 +4219,13 @@
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="38" t="s">
+      <c r="B6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="6"/>
@@ -4167,13 +4237,13 @@
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="38" t="s">
+      <c r="B7" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="6"/>
@@ -4185,13 +4255,13 @@
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="35" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="6"/>
@@ -4215,16 +4285,16 @@
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="41"/>
+      <c r="B10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="39"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -4233,13 +4303,13 @@
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="33" t="s">
+      <c r="B11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="6"/>
@@ -4251,19 +4321,21 @@
       <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="79" t="s">
+        <v>207</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
@@ -4271,13 +4343,13 @@
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="33" t="s">
+      <c r="B13" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="6"/>
@@ -4289,13 +4361,13 @@
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="33" t="s">
+      <c r="B14" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="6"/>
@@ -4307,13 +4379,13 @@
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -4339,13 +4411,13 @@
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="33" t="s">
+      <c r="B17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="6"/>
@@ -4357,13 +4429,13 @@
       <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="33" t="s">
+      <c r="B18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="6"/>
@@ -4375,13 +4447,13 @@
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="33" t="s">
+      <c r="B19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="6"/>
@@ -4393,13 +4465,13 @@
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="33" t="s">
+      <c r="B20" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="6"/>
@@ -4411,19 +4483,21 @@
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="79" t="s">
+        <v>209</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
@@ -4443,13 +4517,13 @@
       <c r="A23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="38" t="s">
+      <c r="B23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="6"/>
@@ -4461,19 +4535,21 @@
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="6"/>
+        <v>218</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>219</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
@@ -4481,13 +4557,13 @@
       <c r="A25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="38" t="s">
+      <c r="B25" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="6"/>
@@ -4499,13 +4575,13 @@
       <c r="A26" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="38" t="s">
+      <c r="B26" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="6"/>
@@ -4536,8 +4612,8 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A29" s="39" t="s">
-        <v>123</v>
+      <c r="A29" s="37" t="s">
+        <v>122</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>8</v>
@@ -4549,15 +4625,17 @@
         <v>8</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="F29" s="79" t="s">
+        <v>216</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A30" s="39" t="s">
-        <v>125</v>
+      <c r="A30" s="37" t="s">
+        <v>124</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>5</v>
@@ -4574,8 +4652,8 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A31" s="39" t="s">
-        <v>126</v>
+      <c r="A31" s="37" t="s">
+        <v>125</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>5</v>
@@ -4592,8 +4670,8 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A32" s="39" t="s">
-        <v>127</v>
+      <c r="A32" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>5</v>
@@ -4610,8 +4688,8 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A33" s="39" t="s">
-        <v>128</v>
+      <c r="A33" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>3</v>
@@ -4623,15 +4701,15 @@
         <v>3</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A34" s="39" t="s">
-        <v>130</v>
+      <c r="A34" s="37" t="s">
+        <v>129</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>5</v>
@@ -5680,67 +5758,75 @@
     <row r="1000" ht="12.75"/>
   </sheetData>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F21" r:id="rId3"/>
+    <hyperlink ref="F29" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId5"/>
+    <hyperlink ref="F24" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -5753,7 +5839,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30:F31"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5761,7 +5847,7 @@
     <col min="1" max="1" width="54.5703125" customWidth="1"/>
     <col min="2" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
     <col min="6" max="6" width="91.140625" customWidth="1"/>
     <col min="7" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
@@ -5773,13 +5859,15 @@
         <v>81</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="E1" s="75" t="s">
+        <v>199</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -5795,10 +5883,10 @@
     <row r="2" spans="1:16" ht="12.75" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -5815,10 +5903,10 @@
     <row r="3" spans="1:16" ht="12.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5837,13 +5925,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -5863,9 +5951,11 @@
         <v>5</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="28" t="s">
+        <v>5</v>
+      </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -5885,11 +5975,12 @@
         <v>5</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="E6" s="6"/>
       <c r="F6" t="s">
         <v>80</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>3</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -5907,9 +5998,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="E7" s="6"/>
       <c r="F7" t="s">
         <v>15</v>
       </c>
@@ -5922,16 +6011,18 @@
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="D8" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>220</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -5946,7 +6037,7 @@
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -5968,7 +6059,7 @@
       <c r="A10" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -6008,14 +6099,14 @@
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -6032,7 +6123,7 @@
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -6054,14 +6145,14 @@
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>160</v>
+      <c r="D14" s="22" t="s">
+        <v>159</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -6078,14 +6169,14 @@
       <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -6102,7 +6193,7 @@
       <c r="A16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -6124,7 +6215,7 @@
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -6146,7 +6237,7 @@
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -6168,7 +6259,7 @@
       <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -6244,7 +6335,7 @@
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>5</v>
@@ -6266,7 +6357,7 @@
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>5</v>
@@ -6288,7 +6379,7 @@
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>5</v>
@@ -6310,7 +6401,7 @@
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>8</v>
@@ -6319,9 +6410,11 @@
         <v>8</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="6"/>
+        <v>161</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>221</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -6339,7 +6432,6 @@
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -6352,7 +6444,7 @@
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>5</v>
@@ -6361,7 +6453,6 @@
         <v>5</v>
       </c>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -6373,19 +6464,18 @@
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="1:14" ht="12.75">
-      <c r="A29" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" s="44" t="s">
+      <c r="A29" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>162</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -6397,8 +6487,8 @@
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A30" s="47" t="s">
-        <v>165</v>
+      <c r="A30" s="44" t="s">
+        <v>164</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -6407,7 +6497,10 @@
         <v>8</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="12.75" customHeight="1">
@@ -7419,52 +7512,36 @@
     <row r="999" ht="12.75"/>
     <row r="1000" ht="12.75"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:D5 E1:F3 G1:J1000 F8:F1000 B20:B28 D6 D1 E6:E1000 E4 B1:C3 B5:C7 C7:D28 B30:D1000">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="not run">
-      <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
+  <conditionalFormatting sqref="E4:E996 C2:D5 E1:F3 G1:J1000 F8:F1000 B20:B28 D6 D1 B1:C3 B5:C7 C7:D28 B30:D1000 A2:A3">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D5 E1:F3 G1:J1000 F8:F1000 B20:B28 D6 D1 E6:E1000 E4 B1:C3 B5:C7 C7:D28 B30:D1000">
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
+  <conditionalFormatting sqref="E4:E996 C2:D5 E1:F3 G1:J1000 F8:F1000 B20:B28 D6 D1 B1:C3 B5:C7 C7:D28 B30:D1000 A2:A3">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D5 E1:F3 G1:J1000 F8:F1000 B20:B28 D6 D1 E6:E1000 E4 B1:C3 B5:C7 C7:D28 B30:D1000">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
+  <conditionalFormatting sqref="E4:E996 C2:D5 E1:F3 G1:J1000 F8:F1000 B20:B28 D6 D1 B1:C3 B5:C7 C7:D28 B30:D1000 A2:A3">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D5 E1:F3 G1:J1000 F8:F1000 B20:B28 D6 D1 E6:E1000 E4 B1:C3 B5:C7 C7:D28 B30:D1000">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Skipped">
-      <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
+  <conditionalFormatting sqref="E4:E996 C2:D5 E1:F3 G1:J1000 F8:F1000 B20:B28 D6 D1 B1:C3 B5:C7 C7:D28 B30:D1000 A2:A3">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="not run">
-      <formula>NOT(ISERROR(SEARCH(("not run"),(A2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH(("Passed"),(A2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH(("Failed"),(A2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Skipped">
-      <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="E26" r:id="rId2"/>
+    <hyperlink ref="E30" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -7473,7 +7550,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7481,27 +7558,31 @@
     <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="6" width="89.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30">
       <c r="A1" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="75" t="s">
+        <v>199</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -7514,10 +7595,10 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="81" t="s">
         <v>102</v>
       </c>
     </row>
@@ -7530,8 +7611,8 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="76"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -7579,13 +7660,15 @@
       <c r="A8" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>210</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -7593,7 +7676,7 @@
       <c r="A9" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6"/>
@@ -7615,7 +7698,7 @@
       <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="6"/>
@@ -7627,7 +7710,7 @@
       <c r="A12" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="6"/>
@@ -7649,13 +7732,15 @@
       <c r="A14" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>211</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
@@ -7663,7 +7748,7 @@
       <c r="A15" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="6"/>
@@ -7675,7 +7760,7 @@
       <c r="A16" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6"/>
@@ -7687,11 +7772,11 @@
       <c r="A17" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -7711,7 +7796,7 @@
       <c r="A19" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="6"/>
@@ -7723,109 +7808,112 @@
       <c r="A20" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="51" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="51">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="47" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="53" t="s">
+      <c r="B31" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="53" t="s">
+      <c r="B32" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="53" t="s">
+      <c r="B33" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="50" t="s">
         <v>172</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="53" t="s">
-        <v>173</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>5</v>
@@ -7836,14 +7924,14 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="25.5">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -7908,8 +7996,13 @@
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D23" r:id="rId2"/>
+    <hyperlink ref="D14" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -7918,37 +8011,40 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="56" style="58" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="36" style="58" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="58"/>
-    <col min="6" max="6" width="89.140625" style="58" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="56" style="55" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="55" customWidth="1"/>
+    <col min="3" max="3" width="36" style="55" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="55" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="55" customWidth="1"/>
+    <col min="6" max="6" width="89.140625" style="55" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30">
-      <c r="A1" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56" t="s">
         <v>148</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59" t="s">
-        <v>149</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -7956,76 +8052,76 @@
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="81" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="25.5">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>194</v>
+      <c r="C4" s="57" t="s">
+        <v>193</v>
       </c>
       <c r="D4" s="21"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="76"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="72" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="42" t="s">
+      <c r="C6" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="55" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="21"/>
@@ -8034,22 +8130,22 @@
       <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="60"/>
+      <c r="B8" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="57"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="21"/>
@@ -8058,10 +8154,10 @@
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="21"/>
@@ -8070,10 +8166,10 @@
       <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="21"/>
@@ -8082,10 +8178,10 @@
       <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="21"/>
@@ -8094,10 +8190,10 @@
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" ht="25.5">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="21"/>
@@ -8106,24 +8202,24 @@
       <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="73" t="s">
+      <c r="A14" s="61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="60" t="s">
-        <v>193</v>
+      <c r="C14" s="57" t="s">
+        <v>192</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="25.5">
-      <c r="A15" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="71" t="s">
+      <c r="A15" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="21"/>
@@ -8132,10 +8228,10 @@
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="70" t="s">
+      <c r="A16" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="21"/>
@@ -8144,22 +8240,22 @@
       <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="60"/>
+      <c r="A17" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="57"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="70" t="s">
+      <c r="A18" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="21"/>
@@ -8168,10 +8264,10 @@
       <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="70" t="s">
+      <c r="A19" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="21"/>
@@ -8180,109 +8276,109 @@
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="42"/>
+      <c r="A20" s="40"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="74"/>
+      <c r="B22" s="71"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="40"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="B23" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="42"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="66" t="s">
-        <v>190</v>
-      </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="69" t="s">
+      <c r="A27" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="25.5">
+      <c r="A29" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B29" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="58" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="25.5">
-      <c r="A29" s="66" t="s">
+      <c r="C29" s="55" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="B29" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="66" t="s">
-        <v>197</v>
-      </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="42"/>
-      <c r="B31" s="67"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="64"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="42"/>
-      <c r="B32" s="67"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="64"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="42"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="57"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="42"/>
-      <c r="B34" s="68"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="42"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="21"/>
-      <c r="C35" s="60"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
